--- a/Documentation/数据库设计文档版本记录/futureD（三安）数据库设计.xlsx
+++ b/Documentation/数据库设计文档版本记录/futureD（三安）数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息表" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,19 @@
     <sheet name="次要信息表" sheetId="11" r:id="rId5"/>
     <sheet name="晶圆参数表" sheetId="12" r:id="rId6"/>
     <sheet name="晶圆坐标数据表" sheetId="13" r:id="rId7"/>
-    <sheet name="Subdie表" sheetId="14" r:id="rId8"/>
-    <sheet name="曲线表" sheetId="15" r:id="rId9"/>
-    <sheet name="smith数据表" sheetId="16" r:id="rId10"/>
-    <sheet name="日志表" sheetId="17" r:id="rId11"/>
-    <sheet name="数据库表关系图" sheetId="18" r:id="rId12"/>
+    <sheet name="Subdie坐标表" sheetId="14" r:id="rId8"/>
+    <sheet name="Subdie参数表" sheetId="20" r:id="rId9"/>
+    <sheet name="曲线表" sheetId="15" r:id="rId10"/>
+    <sheet name="smith数据表" sheetId="16" r:id="rId11"/>
+    <sheet name="日志表" sheetId="17" r:id="rId12"/>
+    <sheet name="数据库表关系图" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="442">
   <si>
     <t>UserInfo(用户信息表)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1125,14 +1126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subdie_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应subdie表主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,10 +1135,6 @@
   </si>
   <si>
     <t>curve_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dm_wafer_subdie(晶圆Subdie表)，一个die可能会存在多个subdie，故将subdie另存一张表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1576,6 +1565,119 @@
   <si>
     <t>map图Y轴方向</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_wafer_subdie(晶圆Subdie表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_wafer_subdie_parameter(Subdie参数表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应t_subdie_parameter的主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_parameter_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie对应的Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：合格；255：不合格；5000：未被测试；5001：其他器件类型，
+不为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_wafer_subdie_config(Subdie配置表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_config_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_size_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_size_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离X的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离y的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie的y长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie的x长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1663,7 +1765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1754,11 +1856,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1820,6 +1931,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,8 +2165,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表5_81035121320" displayName="表5_81035121320" ref="C2:G6" totalsRowShown="0">
-  <autoFilter ref="C2:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表5_81035121320" displayName="表5_81035121320" ref="C2:G70" totalsRowShown="0">
+  <autoFilter ref="C2:G70"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
     <tableColumn id="2" name="类型"/>
@@ -2057,12 +2179,12 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表5_8103512132021" displayName="表5_8103512132021" ref="C2:G11" totalsRowShown="0">
-  <autoFilter ref="C2:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表5_8103512132010" displayName="表5_8103512132010" ref="C2:G9" totalsRowShown="0">
+  <autoFilter ref="C2:G9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
-    <tableColumn id="2" name="类型" dataDxfId="11"/>
-    <tableColumn id="3" name="长度" dataDxfId="10"/>
+    <tableColumn id="2" name="类型"/>
+    <tableColumn id="3" name="长度"/>
     <tableColumn id="4" name="说明"/>
     <tableColumn id="5" name="备注"/>
   </tableColumns>
@@ -2071,12 +2193,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表5_810351213202122" displayName="表5_810351213202122" ref="C15:G21" totalsRowShown="0">
-  <autoFilter ref="C15:G21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表5_810351213201018" displayName="表5_810351213201018" ref="C14:G21" totalsRowShown="0">
+  <autoFilter ref="C14:G21"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
-    <tableColumn id="2" name="类型" dataDxfId="9"/>
-    <tableColumn id="3" name="长度" dataDxfId="8"/>
+    <tableColumn id="2" name="类型"/>
+    <tableColumn id="3" name="长度"/>
     <tableColumn id="4" name="说明"/>
     <tableColumn id="5" name="备注"/>
   </tableColumns>
@@ -2099,6 +2221,34 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表5_8103512132021" displayName="表5_8103512132021" ref="C2:G11" totalsRowShown="0">
+  <autoFilter ref="C2:G11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="字段名称"/>
+    <tableColumn id="2" name="类型" dataDxfId="11"/>
+    <tableColumn id="3" name="长度" dataDxfId="10"/>
+    <tableColumn id="4" name="说明"/>
+    <tableColumn id="5" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表5_810351213202122" displayName="表5_810351213202122" ref="C15:G21" totalsRowShown="0">
+  <autoFilter ref="C15:G21"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="字段名称"/>
+    <tableColumn id="2" name="类型" dataDxfId="9"/>
+    <tableColumn id="3" name="长度" dataDxfId="8"/>
+    <tableColumn id="4" name="说明"/>
+    <tableColumn id="5" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表5_81035121320212223" displayName="表5_81035121320212223" ref="C27:G70" totalsRowShown="0">
   <autoFilter ref="C27:G70"/>
   <tableColumns count="5">
@@ -2112,7 +2262,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表5_810351213202124" displayName="表5_810351213202124" ref="C2:G14" totalsRowShown="0">
   <autoFilter ref="C2:G14"/>
   <tableColumns count="5">
@@ -2126,7 +2276,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表5_81035121320212426" displayName="表5_81035121320212426" ref="C20:G32" totalsRowShown="0">
   <autoFilter ref="C20:G32"/>
   <tableColumns count="5">
@@ -2140,7 +2290,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表5_8103512132021242627" displayName="表5_8103512132021242627" ref="C38:G46" totalsRowShown="0">
   <autoFilter ref="C38:G46"/>
   <tableColumns count="5">
@@ -2154,7 +2304,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表5_810325" displayName="表5_810325" ref="C2:G6" totalsRowShown="0">
   <autoFilter ref="C2:G6"/>
   <tableColumns count="5">
@@ -2730,6 +2880,939 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:G70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="85.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7">
+      <c r="C1" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17">
+        <v>255</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="16">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17">
+        <v>255</v>
+      </c>
+      <c r="F5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="17">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="17">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="17">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="19">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="17">
+        <v>255</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="17">
+        <v>255</v>
+      </c>
+      <c r="F17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="17">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="17">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="16">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="16">
+        <v>255</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="17">
+        <v>255</v>
+      </c>
+      <c r="F29" t="s">
+        <v>331</v>
+      </c>
+      <c r="G29" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="16">
+        <v>255</v>
+      </c>
+      <c r="F30" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C26:G26"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2746,7 +3829,7 @@
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" s="26" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -2772,7 +3855,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>9</v>
@@ -2781,7 +3864,7 @@
         <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
         <v>113</v>
@@ -2789,7 +3872,7 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>9</v>
@@ -2815,15 +3898,15 @@
         <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>280</v>
@@ -2832,12 +3915,12 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>280</v>
@@ -2846,12 +3929,12 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>280</v>
@@ -2860,12 +3943,12 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>280</v>
@@ -2874,12 +3957,12 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>280</v>
@@ -2888,12 +3971,12 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>280</v>
@@ -2902,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>280</v>
@@ -2917,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>280</v>
@@ -2932,13 +4015,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>280</v>
@@ -2947,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="26" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2979,7 +4062,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>9</v>
@@ -2988,15 +4071,15 @@
         <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>9</v>
@@ -3013,7 +4096,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>10</v>
@@ -3022,15 +4105,15 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>10</v>
@@ -3039,12 +4122,12 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>10</v>
@@ -3053,15 +4136,15 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>280</v>
@@ -3070,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="3:7">
@@ -3084,10 +4167,10 @@
         <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -3124,7 +4207,7 @@
     </row>
     <row r="37" spans="3:7">
       <c r="C37" s="26" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
@@ -3150,7 +4233,7 @@
     </row>
     <row r="39" spans="3:7">
       <c r="C39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>9</v>
@@ -3159,7 +4242,7 @@
         <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G39" t="s">
         <v>113</v>
@@ -3167,7 +4250,7 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>10</v>
@@ -3176,12 +4259,12 @@
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="3:7">
       <c r="C41" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>280</v>
@@ -3190,12 +4273,12 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>280</v>
@@ -3204,12 +4287,12 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>71</v>
@@ -3218,7 +4301,7 @@
         <v>255</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -3232,10 +4315,10 @@
         <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G44" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="3:7">
@@ -3268,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:G6"/>
   <sheetViews>
@@ -3287,7 +4370,7 @@
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" s="26" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -3313,7 +4396,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3339,7 +4422,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -3391,7 +4474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3828,7 +4911,7 @@
   <sheetData>
     <row r="2" spans="3:7">
       <c r="C2" s="26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -3914,7 +4997,7 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -3931,7 +5014,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
@@ -3974,7 +5057,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -3994,7 +5077,7 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E20">
         <v>255</v>
@@ -4025,7 +5108,7 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -4042,7 +5125,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>71</v>
@@ -4178,7 +5261,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>113</v>
@@ -4186,7 +5269,7 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -4195,7 +5278,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>113</v>
@@ -4250,7 +5333,7 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -4284,7 +5367,7 @@
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>71</v>
@@ -4316,7 +5399,7 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -4401,19 +5484,19 @@
     </row>
     <row r="20" spans="3:7" ht="54">
       <c r="C20" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E20" s="3">
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4490,7 +5573,7 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -4504,7 +5587,7 @@
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -4623,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4777,7 +5860,7 @@
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -4803,7 +5886,7 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -4823,7 +5906,7 @@
         <v>282</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -4871,7 +5954,7 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>279</v>
@@ -4888,7 +5971,7 @@
     </row>
     <row r="21" spans="3:7" ht="16.5">
       <c r="C21" s="21" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>288</v>
@@ -4897,15 +5980,15 @@
         <v>100</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="16.5">
       <c r="C22" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>288</v>
@@ -4914,15 +5997,15 @@
         <v>100</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="16.5">
       <c r="C23" s="21" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>288</v>
@@ -4952,7 +6035,7 @@
     </row>
     <row r="25" spans="3:7" ht="16.5">
       <c r="C25" s="23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>292</v>
@@ -4961,7 +6044,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G25" s="23"/>
     </row>
@@ -5029,7 +6112,7 @@
   <dimension ref="C1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5069,7 +6152,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -5117,7 +6200,7 @@
         <v>145</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
@@ -5134,7 +6217,7 @@
         <v>146</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
@@ -5151,7 +6234,7 @@
         <v>147</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
@@ -6111,10 +7194,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G6"/>
+  <dimension ref="C1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6122,12 +7205,12 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="7" max="7" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" s="26" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -6198,21 +7281,992 @@
       <c r="F5" t="s">
         <v>300</v>
       </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>10</v>
+      <c r="C6" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
       </c>
-      <c r="F6" t="s">
-        <v>305</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="27">
+      <c r="C8" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="18">
+        <v>10</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="18">
+        <v>10</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6220,31 +8274,32 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G70"/>
+  <dimension ref="C1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="85.875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="59.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
       <c r="C1" s="26" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -6270,12 +8325,12 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>310</v>
+        <v>427</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3">
         <v>255</v>
       </c>
       <c r="F3" t="s">
@@ -6287,190 +8342,172 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="16">
-        <v>255</v>
+        <v>428</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
       <c r="G4" t="s">
-        <v>315</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17">
-        <v>255</v>
+        <v>441</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>314</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="17">
-        <v>255</v>
-      </c>
-      <c r="F6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G6" t="s">
-        <v>313</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" t="s">
-        <v>113</v>
+      <c r="F7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="17">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>113</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="19">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="19">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>255</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="17">
-        <v>255</v>
+        <v>422</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>423</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="17">
-        <v>255</v>
+        <v>433</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>322</v>
+        <v>437</v>
       </c>
       <c r="G17" t="s">
         <v>113</v>
@@ -6478,683 +8515,73 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="17">
-        <v>100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>325</v>
+        <v>434</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="G18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="17">
-        <v>100</v>
-      </c>
-      <c r="F19" t="s">
-        <v>329</v>
+      <c r="C19" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" t="s">
-        <v>330</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="17">
-        <v>100</v>
-      </c>
-      <c r="F20" t="s">
-        <v>331</v>
+      <c r="C20" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>439</v>
       </c>
       <c r="G20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="16">
-        <v>255</v>
-      </c>
-      <c r="F21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" t="s">
-        <v>333</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="16">
-        <v>255</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" t="s">
-        <v>321</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="17">
-        <v>255</v>
-      </c>
-      <c r="F29" t="s">
-        <v>334</v>
-      </c>
-      <c r="G29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="16">
-        <v>255</v>
-      </c>
-      <c r="F30" t="s">
-        <v>312</v>
-      </c>
-      <c r="G30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="C48" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="C52" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="C53" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="C54" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G57" s="11"/>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="C58" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" s="8"/>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="C59" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="C60" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="3:7">
-      <c r="C61" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" spans="3:7">
-      <c r="C62" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="C63" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" s="11"/>
-    </row>
-    <row r="64" spans="3:7">
-      <c r="C64" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="3:7">
-      <c r="C66" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="C67" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="3:7">
-      <c r="C68" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="8"/>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" s="8"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/数据库设计文档版本记录/futureD（三安）数据库设计.xlsx
+++ b/Documentation/数据库设计文档版本记录/futureD（三安）数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="21705" windowHeight="5880" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户信息表" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,19 @@
     <sheet name="晶圆参数表" sheetId="12" r:id="rId6"/>
     <sheet name="晶圆坐标数据表" sheetId="13" r:id="rId7"/>
     <sheet name="Subdie坐标表" sheetId="14" r:id="rId8"/>
-    <sheet name="Subdie参数表" sheetId="20" r:id="rId9"/>
+    <sheet name="Subdie配置表" sheetId="20" r:id="rId9"/>
     <sheet name="曲线表" sheetId="15" r:id="rId10"/>
     <sheet name="smith数据表" sheetId="16" r:id="rId11"/>
     <sheet name="日志表" sheetId="17" r:id="rId12"/>
     <sheet name="数据库表关系图" sheetId="18" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A4:N23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="460">
   <si>
     <t>UserInfo(用户信息表)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1020,10 +1021,6 @@
   </si>
   <si>
     <t>die Y坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-合格，255-不合格，-1 - 无效  ，不为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1579,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1607,76 +1600,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dm_wafer_subdie_parameter(Subdie参数表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应t_subdie_parameter的主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie_parameter_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie对应的Type</t>
+    <t>dm_wafer_subdie_config(Subdie配置表)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_config_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offset_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_size_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_size_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离X的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离y的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie的y长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie的x长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafer_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶圆编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_alphabet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map文件中存在进行转换的数据则进行数字/字母坐标的转换，没有则不进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wafer_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dm_wafer主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_bin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1：合格；255：不合格；5000：未被测试；5001：其他器件类型，
-不为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dm_wafer_subdie_config(Subdie配置表)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie_config_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offset_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie_size_x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie_size_y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离X的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离y的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie的y长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subdie的x长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameter_name</t>
+不为空；-1：无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：合格；255：不合格；5000：未被测试；5001：其他器件类型，
+不为空；-1：无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_last_modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件最新修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该类型便于模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subdie_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据是Subdie/Die的标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:测试数据是die;1：测试数据是subdie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不为空，是否是对用户设置的权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1684,7 +1758,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,6 +1813,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1869,7 +1958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1923,15 +2012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1942,6 +2022,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2095,8 +2191,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表5_81035" displayName="表5_81035" ref="C2:G20" totalsRowShown="0">
-  <autoFilter ref="C2:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表5_81035" displayName="表5_81035" ref="C2:G22" totalsRowShown="0">
+  <autoFilter ref="C2:G22"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
     <tableColumn id="2" name="类型"/>
@@ -2165,8 +2261,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表5_81035121320" displayName="表5_81035121320" ref="C2:G70" totalsRowShown="0">
-  <autoFilter ref="C2:G70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="表5_81035121320" displayName="表5_81035121320" ref="C2:G71" totalsRowShown="0">
+  <autoFilter ref="C2:G71"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
     <tableColumn id="2" name="类型"/>
@@ -2179,8 +2275,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表5_8103512132010" displayName="表5_8103512132010" ref="C2:G9" totalsRowShown="0">
-  <autoFilter ref="C2:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表5_810351213201018" displayName="表5_810351213201018" ref="C14:G21" totalsRowShown="0">
+  <autoFilter ref="C14:G21"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
     <tableColumn id="2" name="类型"/>
@@ -2193,12 +2289,12 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="表5_810351213201018" displayName="表5_810351213201018" ref="C14:G21" totalsRowShown="0">
-  <autoFilter ref="C14:G21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表5_8103512132021" displayName="表5_8103512132021" ref="C2:G11" totalsRowShown="0">
+  <autoFilter ref="C2:G11"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
-    <tableColumn id="2" name="类型"/>
-    <tableColumn id="3" name="长度"/>
+    <tableColumn id="2" name="类型" dataDxfId="11"/>
+    <tableColumn id="3" name="长度" dataDxfId="10"/>
     <tableColumn id="4" name="说明"/>
     <tableColumn id="5" name="备注"/>
   </tableColumns>
@@ -2221,20 +2317,6 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="表5_8103512132021" displayName="表5_8103512132021" ref="C2:G11" totalsRowShown="0">
-  <autoFilter ref="C2:G11"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="字段名称"/>
-    <tableColumn id="2" name="类型" dataDxfId="11"/>
-    <tableColumn id="3" name="长度" dataDxfId="10"/>
-    <tableColumn id="4" name="说明"/>
-    <tableColumn id="5" name="备注"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="表5_810351213202122" displayName="表5_810351213202122" ref="C15:G21" totalsRowShown="0">
   <autoFilter ref="C15:G21"/>
   <tableColumns count="5">
@@ -2248,7 +2330,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="表5_81035121320212223" displayName="表5_81035121320212223" ref="C27:G70" totalsRowShown="0">
   <autoFilter ref="C27:G70"/>
   <tableColumns count="5">
@@ -2262,7 +2344,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="表5_810351213202124" displayName="表5_810351213202124" ref="C2:G14" totalsRowShown="0">
   <autoFilter ref="C2:G14"/>
   <tableColumns count="5">
@@ -2276,7 +2358,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="表5_81035121320212426" displayName="表5_81035121320212426" ref="C20:G32" totalsRowShown="0">
   <autoFilter ref="C20:G32"/>
   <tableColumns count="5">
@@ -2290,7 +2372,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="表5_8103512132021242627" displayName="表5_8103512132021242627" ref="C38:G46" totalsRowShown="0">
   <autoFilter ref="C38:G46"/>
   <tableColumns count="5">
@@ -2304,7 +2386,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="表5_810325" displayName="表5_810325" ref="C2:G6" totalsRowShown="0">
   <autoFilter ref="C2:G6"/>
   <tableColumns count="5">
@@ -2403,8 +2485,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表5_8103" displayName="表5_8103" ref="C3:G5" totalsRowShown="0">
-  <autoFilter ref="C3:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表5_8103" displayName="表5_8103" ref="C3:G7" totalsRowShown="0">
+  <autoFilter ref="C3:G7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="字段名称"/>
     <tableColumn id="2" name="类型"/>
@@ -2717,13 +2799,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
@@ -2895,13 +2977,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -2922,7 +3004,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>9</v>
@@ -2934,7 +3016,7 @@
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="3:7">
@@ -2948,10 +3030,10 @@
         <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -2965,15 +3047,15 @@
         <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>9</v>
@@ -2982,15 +3064,15 @@
         <v>255</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>10</v>
@@ -2999,7 +3081,7 @@
         <v>100</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" t="s">
         <v>113</v>
@@ -3007,7 +3089,7 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>10</v>
@@ -3021,7 +3103,7 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>10</v>
@@ -3030,7 +3112,7 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
         <v>113</v>
@@ -3038,7 +3120,7 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>9</v>
@@ -3047,35 +3129,35 @@
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
@@ -3096,7 +3178,7 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>9</v>
@@ -3108,12 +3190,12 @@
         <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>9</v>
@@ -3122,7 +3204,7 @@
         <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G17" t="s">
         <v>113</v>
@@ -3130,7 +3212,7 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>10</v>
@@ -3139,7 +3221,7 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
         <v>113</v>
@@ -3147,7 +3229,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>10</v>
@@ -3156,12 +3238,12 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>10</v>
@@ -3170,7 +3252,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G20" t="s">
         <v>113</v>
@@ -3187,20 +3269,20 @@
         <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="3:7">
-      <c r="C26" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="C26" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" t="s">
@@ -3221,7 +3303,7 @@
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>9</v>
@@ -3233,12 +3315,12 @@
         <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>9</v>
@@ -3247,10 +3329,10 @@
         <v>255</v>
       </c>
       <c r="F29" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" t="s">
         <v>331</v>
-      </c>
-      <c r="G29" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="30" spans="3:7">
@@ -3264,10 +3346,10 @@
         <v>255</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="3:7">
@@ -3275,7 +3357,7 @@
         <v>150</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -3284,7 +3366,7 @@
         <v>151</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="3:7">
@@ -3292,7 +3374,7 @@
         <v>152</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
@@ -3305,7 +3387,7 @@
         <v>154</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
@@ -3318,7 +3400,7 @@
         <v>156</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
@@ -3331,7 +3413,7 @@
         <v>158</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
@@ -3344,7 +3426,7 @@
         <v>160</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
@@ -3357,7 +3439,7 @@
         <v>162</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
@@ -3370,7 +3452,7 @@
         <v>164</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
@@ -3383,7 +3465,7 @@
         <v>166</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
@@ -3396,7 +3478,7 @@
         <v>168</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
@@ -3409,7 +3491,7 @@
         <v>170</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
@@ -3422,7 +3504,7 @@
         <v>172</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
@@ -3435,7 +3517,7 @@
         <v>174</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
@@ -3448,7 +3530,7 @@
         <v>176</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
@@ -3461,7 +3543,7 @@
         <v>178</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
@@ -3474,7 +3556,7 @@
         <v>180</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
@@ -3487,7 +3569,7 @@
         <v>182</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
@@ -3500,7 +3582,7 @@
         <v>184</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
@@ -3513,7 +3595,7 @@
         <v>186</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
@@ -3526,7 +3608,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
@@ -3539,7 +3621,7 @@
         <v>190</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
@@ -3552,7 +3634,7 @@
         <v>192</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
@@ -3565,7 +3647,7 @@
         <v>194</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
@@ -3578,7 +3660,7 @@
         <v>196</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
@@ -3591,7 +3673,7 @@
         <v>198</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
@@ -3604,7 +3686,7 @@
         <v>200</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
@@ -3617,7 +3699,7 @@
         <v>202</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
@@ -3630,7 +3712,7 @@
         <v>204</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
@@ -3643,7 +3725,7 @@
         <v>206</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
@@ -3656,7 +3738,7 @@
         <v>208</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
@@ -3669,7 +3751,7 @@
         <v>210</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
@@ -3682,7 +3764,7 @@
         <v>212</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
@@ -3695,7 +3777,7 @@
         <v>214</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
@@ -3708,7 +3790,7 @@
         <v>216</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
@@ -3721,7 +3803,7 @@
         <v>218</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
@@ -3734,7 +3816,7 @@
         <v>220</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
@@ -3747,7 +3829,7 @@
         <v>222</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
@@ -3760,7 +3842,7 @@
         <v>224</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
@@ -3773,7 +3855,7 @@
         <v>226</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
@@ -3786,7 +3868,7 @@
         <v>228</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
@@ -3828,13 +3910,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -3855,7 +3937,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>9</v>
@@ -3864,7 +3946,7 @@
         <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>113</v>
@@ -3872,7 +3954,7 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>9</v>
@@ -3884,7 +3966,7 @@
         <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -3898,150 +3980,150 @@
         <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="17">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="17">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="17">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="17">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E11" s="17">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E12" s="17">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="17">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" s="17">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" t="s">
@@ -4062,7 +4144,7 @@
     </row>
     <row r="21" spans="3:7">
       <c r="C21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>9</v>
@@ -4071,15 +4153,15 @@
         <v>255</v>
       </c>
       <c r="F21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>9</v>
@@ -4091,12 +4173,12 @@
         <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>10</v>
@@ -4105,15 +4187,15 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>10</v>
@@ -4122,12 +4204,12 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>10</v>
@@ -4136,24 +4218,24 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" t="s">
         <v>368</v>
-      </c>
-      <c r="G25" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E26" s="16">
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="3:7">
@@ -4167,10 +4249,10 @@
         <v>255</v>
       </c>
       <c r="F27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -4206,13 +4288,13 @@
       <c r="G32" s="3"/>
     </row>
     <row r="37" spans="3:7">
-      <c r="C37" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
+      <c r="C37" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="3:7">
       <c r="C38" t="s">
@@ -4233,7 +4315,7 @@
     </row>
     <row r="39" spans="3:7">
       <c r="C39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>9</v>
@@ -4242,7 +4324,7 @@
         <v>255</v>
       </c>
       <c r="F39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G39" t="s">
         <v>113</v>
@@ -4250,7 +4332,7 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>10</v>
@@ -4259,40 +4341,40 @@
         <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="3:7">
       <c r="C41" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E41" s="17">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E42" s="17">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="3:7">
       <c r="C43" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>71</v>
@@ -4301,7 +4383,7 @@
         <v>255</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -4315,10 +4397,10 @@
         <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="3:7">
@@ -4369,13 +4451,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -4396,7 +4478,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4422,7 +4504,7 @@
         <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
         <v>117</v>
@@ -4507,20 +4589,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
@@ -4607,20 +4689,20 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="H9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" t="s">
@@ -4707,20 +4789,20 @@
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="H15" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" t="s">
@@ -4818,13 +4900,13 @@
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
@@ -4899,24 +4981,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="44.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7">
-      <c r="C2" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
@@ -4969,14 +5052,48 @@
         <v>117</v>
       </c>
     </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
@@ -4997,7 +5114,7 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -5014,7 +5131,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
@@ -5030,13 +5147,13 @@
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
@@ -5057,7 +5174,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -5077,7 +5194,7 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E20">
         <v>255</v>
@@ -5108,7 +5225,7 @@
     </row>
     <row r="22" spans="3:7">
       <c r="C22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -5125,7 +5242,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>71</v>
@@ -5158,10 +5275,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G20"/>
+  <dimension ref="C1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5169,18 +5286,18 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
     <col min="7" max="7" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -5261,7 +5378,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>113</v>
@@ -5269,7 +5386,7 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
@@ -5278,7 +5395,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>113</v>
@@ -5320,20 +5437,22 @@
       <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="D10" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" s="30">
+        <v>255</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="30" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -5367,7 +5486,7 @@
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>71</v>
@@ -5399,7 +5518,7 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
@@ -5482,21 +5601,53 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="54">
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="3:7">
+      <c r="C20" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="3:7" ht="54">
+      <c r="C21" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G21" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="E22" s="31">
         <v>10</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>391</v>
+      <c r="F22" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5529,13 +5680,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -5573,7 +5724,7 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -5587,7 +5738,7 @@
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -5706,8 +5857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5720,13 +5871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -5833,7 +5984,7 @@
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -5848,7 +5999,7 @@
         <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -5859,13 +6010,13 @@
       <c r="G9" s="3"/>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
@@ -5886,7 +6037,7 @@
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -5903,16 +6054,16 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" t="s">
         <v>112</v>
@@ -5920,7 +6071,7 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -5929,7 +6080,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" t="s">
         <v>112</v>
@@ -5937,16 +6088,16 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="16">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G19" t="s">
         <v>112</v>
@@ -5954,16 +6105,16 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E20" s="16">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G20" t="s">
         <v>112</v>
@@ -5971,125 +6122,125 @@
     </row>
     <row r="21" spans="3:7" ht="16.5">
       <c r="C21" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E21" s="21">
         <v>100</v>
       </c>
       <c r="F21" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>410</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="16.5">
       <c r="C22" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22" s="21">
         <v>100</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="16.5">
       <c r="C23" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E23" s="22">
         <v>255</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G23" s="21"/>
     </row>
     <row r="24" spans="3:7" ht="16.5">
       <c r="C24" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E24" s="22">
         <v>255</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="3:7" ht="16.5">
       <c r="C25" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E25" s="22">
         <v>11</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="3:7" ht="16.5">
       <c r="C26" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E26" s="22">
         <v>11</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="3:7" ht="16.5">
       <c r="C27" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E27" s="22">
         <v>255</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="3:7" ht="16.5">
       <c r="C28" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E28" s="22">
         <v>255</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G28" s="23"/>
     </row>
@@ -6125,13 +6276,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -6152,7 +6303,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>9</v>
@@ -6200,7 +6351,7 @@
         <v>145</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
@@ -6217,7 +6368,7 @@
         <v>146</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
@@ -6234,7 +6385,7 @@
         <v>147</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="3">
         <v>32</v>
@@ -6246,7 +6397,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:7" ht="40.5">
       <c r="C9" s="3" t="s">
         <v>148</v>
       </c>
@@ -6259,8 +6410,8 @@
       <c r="F9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>278</v>
+      <c r="G9" s="29" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -6283,7 +6434,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -6300,7 +6451,7 @@
         <v>152</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
@@ -6315,7 +6466,7 @@
         <v>154</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
@@ -6330,7 +6481,7 @@
         <v>156</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
@@ -6345,7 +6496,7 @@
         <v>158</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
@@ -6360,7 +6511,7 @@
         <v>160</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
@@ -6375,7 +6526,7 @@
         <v>162</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
@@ -6390,7 +6541,7 @@
         <v>164</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
@@ -6405,7 +6556,7 @@
         <v>166</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
@@ -6420,7 +6571,7 @@
         <v>168</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
@@ -6435,7 +6586,7 @@
         <v>170</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
@@ -6450,7 +6601,7 @@
         <v>172</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
@@ -6465,7 +6616,7 @@
         <v>174</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
@@ -6480,7 +6631,7 @@
         <v>176</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
@@ -6495,7 +6646,7 @@
         <v>178</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
@@ -6510,7 +6661,7 @@
         <v>180</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
@@ -6525,7 +6676,7 @@
         <v>182</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
@@ -6540,7 +6691,7 @@
         <v>184</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
@@ -6555,7 +6706,7 @@
         <v>186</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
@@ -6570,7 +6721,7 @@
         <v>188</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
@@ -6585,7 +6736,7 @@
         <v>190</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
@@ -6600,7 +6751,7 @@
         <v>192</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
@@ -6615,7 +6766,7 @@
         <v>194</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
@@ -6630,7 +6781,7 @@
         <v>196</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
@@ -6645,7 +6796,7 @@
         <v>198</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
@@ -6660,7 +6811,7 @@
         <v>200</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
@@ -6675,7 +6826,7 @@
         <v>202</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
@@ -6690,7 +6841,7 @@
         <v>204</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
@@ -6705,7 +6856,7 @@
         <v>206</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
@@ -6720,7 +6871,7 @@
         <v>208</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
@@ -6735,7 +6886,7 @@
         <v>210</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
@@ -6750,7 +6901,7 @@
         <v>212</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
@@ -6765,7 +6916,7 @@
         <v>214</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
@@ -6780,7 +6931,7 @@
         <v>216</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
@@ -6795,7 +6946,7 @@
         <v>218</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
@@ -6810,7 +6961,7 @@
         <v>220</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
@@ -6825,7 +6976,7 @@
         <v>222</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
@@ -6840,7 +6991,7 @@
         <v>224</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
@@ -6855,7 +7006,7 @@
         <v>226</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11" t="s">
@@ -6870,7 +7021,7 @@
         <v>228</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
@@ -6885,7 +7036,7 @@
         <v>230</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
@@ -6900,7 +7051,7 @@
         <v>232</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
@@ -6915,7 +7066,7 @@
         <v>234</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
@@ -6930,7 +7081,7 @@
         <v>236</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
@@ -6945,7 +7096,7 @@
         <v>238</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11" t="s">
@@ -6960,7 +7111,7 @@
         <v>240</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
@@ -6975,7 +7126,7 @@
         <v>242</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
@@ -6990,7 +7141,7 @@
         <v>244</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
@@ -7005,7 +7156,7 @@
         <v>246</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
@@ -7020,7 +7171,7 @@
         <v>248</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
@@ -7035,7 +7186,7 @@
         <v>250</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
@@ -7050,7 +7201,7 @@
         <v>252</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
@@ -7065,7 +7216,7 @@
         <v>254</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
@@ -7080,7 +7231,7 @@
         <v>256</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
@@ -7095,7 +7246,7 @@
         <v>258</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
@@ -7110,7 +7261,7 @@
         <v>260</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
@@ -7125,7 +7276,7 @@
         <v>262</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
@@ -7140,7 +7291,7 @@
         <v>264</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
@@ -7155,7 +7306,7 @@
         <v>266</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
@@ -7170,7 +7321,7 @@
         <v>268</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
@@ -7194,10 +7345,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:G70"/>
+  <dimension ref="C1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7205,17 +7356,17 @@
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="59.625" customWidth="1"/>
+    <col min="7" max="7" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
@@ -7236,7 +7387,7 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>9</v>
@@ -7248,7 +7399,7 @@
         <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="3:7">
@@ -7262,1009 +7413,1021 @@
         <v>255</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" t="s">
+      <c r="C5" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" s="34">
+        <v>100</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7">
+        <v>255</v>
+      </c>
+      <c r="F7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D6" s="15" t="s">
+    <row r="8" spans="3:7">
+      <c r="C8" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="27">
-      <c r="C8" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="E8" s="18">
-        <v>10</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>430</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="E9" s="18">
-        <v>10</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:7" ht="27">
+      <c r="C10" s="30" t="s">
+        <v>442</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E10" s="18">
         <v>10</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="G10" s="31"/>
+      <c r="F10" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" s="18">
+        <v>10</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D12" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="6" t="s">
+      <c r="G12" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="9" t="s">
+      <c r="G13" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="6" t="s">
+      <c r="G14" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="9" t="s">
+      <c r="G15" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="6" t="s">
+      <c r="G16" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="9" t="s">
+      <c r="G17" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="D18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="6" t="s">
+      <c r="G18" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="9" t="s">
+      <c r="G19" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
+      <c r="D20" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="6" t="s">
+      <c r="G20" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="D21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="9" t="s">
+      <c r="G21" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="D22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="6" t="s">
+      <c r="G22" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+      <c r="D23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="9" t="s">
+      <c r="G23" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
+      <c r="D24" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="6" t="s">
+      <c r="G24" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="9" t="s">
+      <c r="G25" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11" t="s">
+      <c r="D26" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" s="6" t="s">
+      <c r="G26" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="D27" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7">
-      <c r="C27" s="9" t="s">
+      <c r="G27" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11" t="s">
+      <c r="D28" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="6" t="s">
+      <c r="G28" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
+      <c r="D29" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="9" t="s">
+      <c r="G29" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
+      <c r="D30" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="6" t="s">
+      <c r="G30" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7">
+      <c r="C31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
+      <c r="D31" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31" s="9" t="s">
+      <c r="G31" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="D32" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="6" t="s">
+      <c r="G32" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="D33" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33" s="9" t="s">
+      <c r="G33" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="D34" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="6" t="s">
+      <c r="G34" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+      <c r="D35" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="9" t="s">
+      <c r="G35" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11" t="s">
+      <c r="D36" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="6" t="s">
+      <c r="G36" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="D37" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" s="9" t="s">
+      <c r="G37" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="D38" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="C38" s="6" t="s">
+      <c r="G38" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="D39" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" s="9" t="s">
+      <c r="G39" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11" t="s">
+      <c r="D40" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="C40" s="6" t="s">
+      <c r="G40" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
+      <c r="D41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="9" t="s">
+      <c r="G41" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11" t="s">
+      <c r="D42" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G41" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="C42" s="6" t="s">
+      <c r="G42" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
+      <c r="D43" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="9" t="s">
+      <c r="G43" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11" t="s">
+      <c r="D44" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="6" t="s">
+      <c r="G44" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
+      <c r="D45" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" s="9" t="s">
+      <c r="G45" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7">
+      <c r="C46" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
+      <c r="D46" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="C46" s="6" t="s">
+      <c r="G46" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="D47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="C47" s="9" t="s">
+      <c r="G47" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="D48" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="C48" s="6" t="s">
+      <c r="G48" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
+      <c r="D49" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="C49" s="9" t="s">
+      <c r="G49" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11" t="s">
+      <c r="D50" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="C50" s="6" t="s">
+      <c r="G50" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="D51" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="C51" s="9" t="s">
+      <c r="G51" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
+      <c r="C52" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11" t="s">
+      <c r="D52" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="C52" s="6" t="s">
+      <c r="G52" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
+      <c r="D53" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="C53" s="9" t="s">
+      <c r="G53" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
+      <c r="D54" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="C54" s="6" t="s">
+      <c r="G54" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="C55" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="D55" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="C55" s="9" t="s">
+      <c r="G55" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
+      <c r="D56" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7">
-      <c r="C56" s="6" t="s">
+      <c r="G56" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
+      <c r="D57" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" s="9" t="s">
+      <c r="G57" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
+      <c r="D58" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="C58" s="6" t="s">
+      <c r="G58" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="D59" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="C59" s="9" t="s">
+      <c r="G59" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
+      <c r="D60" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="C60" s="6" t="s">
+      <c r="G60" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
+      <c r="C61" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="D61" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7">
-      <c r="C61" s="9" t="s">
+      <c r="G61" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11" t="s">
+      <c r="D62" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="G61" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7">
-      <c r="C62" s="6" t="s">
+      <c r="G62" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+      <c r="D63" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G62" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="C63" s="9" t="s">
+      <c r="G63" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
+      <c r="C64" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11" t="s">
+      <c r="D64" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7">
-      <c r="C64" s="6" t="s">
+      <c r="G64" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="D65" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="3:7">
-      <c r="C65" s="9" t="s">
+      <c r="G65" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
+      <c r="D66" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7">
-      <c r="C66" s="6" t="s">
+      <c r="G66" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7">
+      <c r="C67" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="D67" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="67" spans="3:7">
-      <c r="C67" s="9" t="s">
+      <c r="G67" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="D68" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7">
-      <c r="C68" s="6" t="s">
+      <c r="G68" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+      <c r="D69" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7">
-      <c r="C69" s="9" t="s">
+      <c r="G69" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
+      <c r="D70" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="28" t="s">
+      <c r="G70" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30" t="s">
+      <c r="D71" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="G70" s="30" t="s">
+      <c r="G71" s="27" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8285,8 +8448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8298,152 +8461,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="3:7">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="3" spans="3:7">
-      <c r="C3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>255</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>303</v>
-      </c>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" t="s">
-        <v>113</v>
-      </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" t="s">
-        <v>441</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" t="s">
-        <v>112</v>
-      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="3:7">
-      <c r="C9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" t="s">
@@ -8464,7 +8529,7 @@
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>9</v>
@@ -8476,12 +8541,12 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>127</v>
@@ -8490,7 +8555,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G16" t="s">
         <v>113</v>
@@ -8498,16 +8563,16 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E17" s="14">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G17" t="s">
         <v>113</v>
@@ -8515,16 +8580,16 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G18" t="s">
         <v>113</v>
@@ -8532,16 +8597,16 @@
     </row>
     <row r="19" spans="3:7">
       <c r="C19" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E19" s="14">
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G19" t="s">
         <v>113</v>
@@ -8549,27 +8614,37 @@
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E20" s="14">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="3"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="15">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8579,9 +8654,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>